--- a/7_eval_compareFastResponse/eval/conversation_17486_output_eval.xlsx
+++ b/7_eval_compareFastResponse/eval/conversation_17486_output_eval.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,57 +458,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[{"role": "assistant", "content": "Chào cậu! Bữa nay thầy giáo robot trên sao HỎA dạy tớ cách luyện nói theo nhịp như… hát rap đó! Mỗi cụm từ giống như một đoạn nhạc nhỏ, có nhịp điệu riêng."}]</t>
+          <t>[{"role": "assistant", "content": "Chào cậu! Bữa nay thầy giáo robot trên sao HỎA dạy tớ cách luyện nói theo nhịp như… hát rap đó! Mỗi cụm từ giống như một đoạn nhạc nhỏ, có nhịp điệu riêng."}, {"role": "assistant", "content": "Cứ theo nhịp là nói được tiếng Anh hay hơn liền! Giờ tụi mình thử cùng luyện nha. Cậu đã sẵn sàng chưa?"}, {"role": "user", "content": "Are you ready?"}]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cứ theo nhịp là nói được tiếng Anh hay hơn liền! Giờ tụi mình thử cùng luyện nha. Cậu đã sẵn sàng chưa?</t>
+          <t>Chào cậu! Bữa nay thầy giáo robot trên sao HỎA dạy tớ cách luyện nói theo nhịp như… hát rap đó! Mỗi cụm từ giống như một đoạn nhạc nhỏ, có nhịp điệu riêng.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Cùng nhau hát rap nhé! 🎤🎶</t>
+          <t>I'm ready! Let's go! 😄</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[{"role": "assistant", "content": "Cứ theo nhịp là nói được tiếng Anh hay hơn liền! Giờ tụi mình thử cùng luyện nha. Cậu đã sẵn sàng chưa?"}, {"role": "user", "content": "Are you ready?"}]</t>
+          <t>[{"role": "assistant", "content": "Chào cậu! Bữa nay thầy giáo robot trên sao HỎA dạy tớ cách luyện nói theo nhịp như… hát rap đó! Mỗi cụm từ giống như một đoạn nhạc nhỏ, có nhịp điệu riêng."}, {"role": "assistant", "content": "Cứ theo nhịp là nói được tiếng Anh hay hơn liền! Giờ tụi mình thử cùng luyện nha. Cậu đã sẵn sàng chưa?"}, {"role": "user", "content": "Are you ready?"}, {"role": "assistant", "content": "Great! Let's start! chúng mình sẽ học nói tiếng Anh theo nhịp giống như hát nha! Bài hát này có nhiều cụm từ rất quen mà cũng rất vui. Bài đầu tiên nha. Đầu tiên, cậu hãy nghe thử cả bài nhé, đừng hát theo vội. Mình chỉ cần cảm nhịp thôi."}, {"role": "assistant", "content": "Giờ mình cùng lặp lại đoạn đầu tiên nha, câu chào cực kỳ thân thiện luôn nè."}, {"role": "assistant", "content": "Cậu nói lại cùng tớ nha."}, {"role": "user", "content": "Hello, hello, how are you? Hello, hello, hello, how are you?"}]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Great! Let's start! chúng mình sẽ học nói tiếng Anh theo nhịp giống như hát nha! Bài hát này có nhiều cụm từ rất quen mà cũng rất vui. Bài đầu tiên nha. Đầu tiên, cậu hãy nghe thử cả bài nhé, đừng hát theo vội. Mình chỉ cần cảm nhịp thôi. </t>
+          <t>Cứ theo nhịp là nói được tiếng Anh hay hơn liền! Giờ tụi mình thử cùng luyện nha. Cậu đã sẵn sàng chưa?</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Yep, I'm ready! Let's go! 😄</t>
+          <t>Tốt lắm! Cậu đã thành thạo rồi! Mình yêu câu nói này!</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[{"role": "assistant", "content": "Great! Let's start! chúng mình sẽ học nói tiếng Anh theo nhịp giống như hát nha! Bài hát này có nhiều cụm từ rất quen mà cũng rất vui. Bài đầu tiên nha. Đầu tiên, cậu hãy nghe thử cả bài nhé, đừng hát theo vội. Mình chỉ cần cảm nhịp thôi. "}]</t>
+          <t>[{"role": "assistant", "content": "Chào cậu! Bữa nay thầy giáo robot trên sao HỎA dạy tớ cách luyện nói theo nhịp như… hát rap đó! Mỗi cụm từ giống như một đoạn nhạc nhỏ, có nhịp điệu riêng."}, {"role": "assistant", "content": "Cứ theo nhịp là nói được tiếng Anh hay hơn liền! Giờ tụi mình thử cùng luyện nha. Cậu đã sẵn sàng chưa?"}, {"role": "user", "content": "Are you ready?"}, {"role": "assistant", "content": "Great! Let's start! chúng mình sẽ học nói tiếng Anh theo nhịp giống như hát nha! Bài hát này có nhiều cụm từ rất quen mà cũng rất vui. Bài đầu tiên nha. Đầu tiên, cậu hãy nghe thử cả bài nhé, đừng hát theo vội. Mình chỉ cần cảm nhịp thôi."}, {"role": "assistant", "content": "Giờ mình cùng lặp lại đoạn đầu tiên nha, câu chào cực kỳ thân thiện luôn nè."}, {"role": "assistant", "content": "Cậu nói lại cùng tớ nha."}, {"role": "user", "content": "Hello, hello, how are you? Hello, hello, hello, how are you?"}, {"role": "assistant", "content": "Nice! You did it! Tiếp theo là khi mình cảm thấy thật tuyệt, cùng nói theo nhịp nha!"}, {"role": "assistant", "content": "Nào, nói lại với tớ!"}, {"role": "user", "content": "I'm good. I'm great. I'm wonderful. I'm good. I'm great, great, great. I'm wonderful."}]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Great! Let's start! chúng mình sẽ học nói tiếng Anh theo nhịp giống như hát nha! Bài hát này có nhiều cụm từ rất quen mà cũng rất vui. Bài đầu tiên nha. Đầu tiên, cậu hãy nghe thử cả bài nhé, đừng hát theo vội. Mình chỉ cần cảm nhịp thôi. </t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Okay, let's go! We'll learn to speak English like singing! This song has many familiar and fun phrases. Let's start with the first verse. First, listen to the whole song, don't sing along too quickly. I just need the rhythm.</t>
+          <t>Tuyệt quá! Nhịp điệu đúng rồi! Mình yêu cái cách cậu nói nha!</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[{"role": "assistant", "content": ""}]</t>
+          <t>[{"role": "assistant", "content": "Chào cậu! Bữa nay thầy giáo robot trên sao HỎA dạy tớ cách luyện nói theo nhịp như… hát rap đó! Mỗi cụm từ giống như một đoạn nhạc nhỏ, có nhịp điệu riêng."}, {"role": "assistant", "content": "Cứ theo nhịp là nói được tiếng Anh hay hơn liền! Giờ tụi mình thử cùng luyện nha. Cậu đã sẵn sàng chưa?"}, {"role": "user", "content": "Are you ready?"}, {"role": "assistant", "content": "Great! Let's start! chúng mình sẽ học nói tiếng Anh theo nhịp giống như hát nha! Bài hát này có nhiều cụm từ rất quen mà cũng rất vui. Bài đầu tiên nha. Đầu tiên, cậu hãy nghe thử cả bài nhé, đừng hát theo vội. Mình chỉ cần cảm nhịp thôi."}, {"role": "assistant", "content": "Giờ mình cùng lặp lại đoạn đầu tiên nha, câu chào cực kỳ thân thiện luôn nè."}, {"role": "assistant", "content": "Cậu nói lại cùng tớ nha."}, {"role": "user", "content": "Hello, hello, how are you? Hello, hello, hello, how are you?"}, {"role": "assistant", "content": "Nice! You did it! Tiếp theo là khi mình cảm thấy thật tuyệt, cùng nói theo nhịp nha!"}, {"role": "assistant", "content": "Nào, nói lại với tớ!"}, {"role": "user", "content": "I'm good. I'm great. I'm wonderful. I'm good. I'm great, great, great. I'm wonderful."}, {"role": "assistant", "content": "Awesome! Cậu nói theo nhịp rất tốt! Câu chào quen thuộc quay lại nè! Mình cùng nói lại một lần nữa nhé!"}, {"role": "assistant", "content": "Cậu nhớ nhịp rồi đúng không? Cùng nói nào!"}, {"role": "user", "content": "hello hello how are you hello hello hello how are you"}]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -519,289 +523,43 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>I'm here for you. 💙</t>
+          <t>Tuyệt quá! Cậu đã làm được rồi! Chúc cậu thành công! 😊</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[{"role": "assistant", "content": "Giờ mình cùng lặp lại đoạn đầu tiên nha, câu chào cực kỳ thân thiện luôn nè."}]</t>
+          <t>[{"role": "assistant", "content": "Chào cậu! Bữa nay thầy giáo robot trên sao HỎA dạy tớ cách luyện nói theo nhịp như… hát rap đó! Mỗi cụm từ giống như một đoạn nhạc nhỏ, có nhịp điệu riêng."}, {"role": "assistant", "content": "Cứ theo nhịp là nói được tiếng Anh hay hơn liền! Giờ tụi mình thử cùng luyện nha. Cậu đã sẵn sàng chưa?"}, {"role": "user", "content": "Are you ready?"}, {"role": "assistant", "content": "Great! Let's start! chúng mình sẽ học nói tiếng Anh theo nhịp giống như hát nha! Bài hát này có nhiều cụm từ rất quen mà cũng rất vui. Bài đầu tiên nha. Đầu tiên, cậu hãy nghe thử cả bài nhé, đừng hát theo vội. Mình chỉ cần cảm nhịp thôi."}, {"role": "assistant", "content": "Giờ mình cùng lặp lại đoạn đầu tiên nha, câu chào cực kỳ thân thiện luôn nè."}, {"role": "assistant", "content": "Cậu nói lại cùng tớ nha."}, {"role": "user", "content": "Hello, hello, how are you? Hello, hello, hello, how are you?"}, {"role": "assistant", "content": "Nice! You did it! Tiếp theo là khi mình cảm thấy thật tuyệt, cùng nói theo nhịp nha!"}, {"role": "assistant", "content": "Nào, nói lại với tớ!"}, {"role": "user", "content": "I'm good. I'm great. I'm wonderful. I'm good. I'm great, great, great. I'm wonderful."}, {"role": "assistant", "content": "Awesome! Cậu nói theo nhịp rất tốt! Câu chào quen thuộc quay lại nè! Mình cùng nói lại một lần nữa nhé!"}, {"role": "assistant", "content": "Cậu nhớ nhịp rồi đúng không? Cùng nói nào!"}, {"role": "user", "content": "hello hello how are you hello hello hello how are you"}, {"role": "assistant", "content": "Good job! Cậu nhớ rất giỏi! Đôi khi mình cũng cảm thấy hơi mệt hoặc đói. Vậy thì mình sẽ nói thế này nè"}, {"role": "assistant", "content": "Giờ thì cậu nhại theo tớ nha!"}, {"role": "user", "content": "I'm tired I'm hungry I'm not so good I'm tired I'm hungry I'm not so good"}]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Cậu nói lại cùng tớ nha.</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Chào bạn! 😊</t>
+          <t>Tốt lắm! Cậu nói rất tốt! Mình sẽ nói tiếp nè!</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[{"role": "assistant", "content": ""}]</t>
+          <t>[{"role": "assistant", "content": "Chào cậu! Bữa nay thầy giáo robot trên sao HỎA dạy tớ cách luyện nói theo nhịp như… hát rap đó! Mỗi cụm từ giống như một đoạn nhạc nhỏ, có nhịp điệu riêng."}, {"role": "assistant", "content": "Cứ theo nhịp là nói được tiếng Anh hay hơn liền! Giờ tụi mình thử cùng luyện nha. Cậu đã sẵn sàng chưa?"}, {"role": "user", "content": "Are you ready?"}, {"role": "assistant", "content": "Great! Let's start! chúng mình sẽ học nói tiếng Anh theo nhịp giống như hát nha! Bài hát này có nhiều cụm từ rất quen mà cũng rất vui. Bài đầu tiên nha. Đầu tiên, cậu hãy nghe thử cả bài nhé, đừng hát theo vội. Mình chỉ cần cảm nhịp thôi."}, {"role": "assistant", "content": "Giờ mình cùng lặp lại đoạn đầu tiên nha, câu chào cực kỳ thân thiện luôn nè."}, {"role": "assistant", "content": "Cậu nói lại cùng tớ nha."}, {"role": "user", "content": "Hello, hello, how are you? Hello, hello, hello, how are you?"}, {"role": "assistant", "content": "Nice! You did it! Tiếp theo là khi mình cảm thấy thật tuyệt, cùng nói theo nhịp nha!"}, {"role": "assistant", "content": "Nào, nói lại với tớ!"}, {"role": "user", "content": "I'm good. I'm great. I'm wonderful. I'm good. I'm great, great, great. I'm wonderful."}, {"role": "assistant", "content": "Awesome! Cậu nói theo nhịp rất tốt! Câu chào quen thuộc quay lại nè! Mình cùng nói lại một lần nữa nhé!"}, {"role": "assistant", "content": "Cậu nhớ nhịp rồi đúng không? Cùng nói nào!"}, {"role": "user", "content": "hello hello how are you hello hello hello how are you"}, {"role": "assistant", "content": "Good job! Cậu nhớ rất giỏi! Đôi khi mình cũng cảm thấy hơi mệt hoặc đói. Vậy thì mình sẽ nói thế này nè"}, {"role": "assistant", "content": "Giờ thì cậu nhại theo tớ nha!"}, {"role": "user", "content": "I'm tired I'm hungry I'm not so good I'm tired I'm hungry I'm not so good"}, {"role": "assistant", "content": "Great! Bây giờ mình cùng nói câu chào cuối nhé! Và cuối cùng, bài hát kết thúc bằng câu chào quen thuộc một lần nữa. Nói lại lần cuối nha!"}, {"role": "assistant", "content": "Cùng nói lại với tớ nào!"}, {"role": "user", "content": "hello hello hello how are you hello hello hello how are you"}]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Cậu nói lại cùng tớ nha.</t>
+          <t xml:space="preserve">Nice! You did it! Tiếp theo là khi mình cảm thấy thật tuyệt, cùng nói theo nhịp nha! </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Okay, I'm ready. Just send me the message and I'll respond instantly with the right emotion.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Cậu nói lại cùng tớ nha."}, {"role": "user", "content": "Hello, hello, how are you? Hello, hello, hello, how are you?"}]</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nice! You did it! Tiếp theo là khi mình cảm thấy thật tuyệt, cùng nói theo nhịp nha! </t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Hello again! How are you? 🌟</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Nice! You did it! Tiếp theo là khi mình cảm thấy thật tuyệt, cùng nói theo nhịp nha! "}]</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Mình hiểu, chúc bạn một ngày tốt lành! 😊</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": ""}]</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Nào, nói lại với tớ!</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Okay, I'm ready. Just send me the message and I'll respond instantly with the right emotion in the same language, keeping it friendly and short. No questions, just the reply. Let's go.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Nào, nói lại với tớ!"}, {"role": "user", "content": "I'm good. I'm great. I'm wonderful. I'm good. I'm great, great, great. I'm wonderful."}]</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Awesome! Cậu nói theo nhịp rất tốt! Câu chào quen thuộc quay lại nè! Mình cùng nói lại một lần nữa nhé!</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>So good, so great! 😊</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Awesome! Cậu nói theo nhịp rất tốt! Câu chào quen thuộc quay lại nè! Mình cùng nói lại một lần nữa nhé!"}]</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Chào lại, mình đang rất vui! 😊</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": ""}]</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Cậu nhớ nhịp rồi đúng không? Cùng nói nào!</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Dù sao đi nữa, mình luôn ở đây nhé! 😊</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Cậu nhớ nhịp rồi đúng không? Cùng nói nào!"}, {"role": "user", "content": "hello hello how are you hello hello hello how are you"}]</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Good job! Cậu nhớ rất giỏi! Đôi khi mình cũng cảm thấy hơi mệt hoặc đói. Vậy thì mình sẽ nói thế này nè</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Hihi, đang vui đây! 😄</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Good job! Cậu nhớ rất giỏi! Đôi khi mình cũng cảm thấy hơi mệt hoặc đói. Vậy thì mình sẽ nói thế này nè"}]</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Mệt thì nghỉ ngơi đi, mình đói thì ăn nhé! 😊</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": ""}]</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Giờ thì cậu nhại theo tớ nha!</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>I'm here for you. 💙</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": " Giờ thì cậu nhại theo tớ nha!"}, {"role": "user", "content": "I'm tired I'm hungry I'm not so good I'm tired I'm hungry I'm not so good"}]</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Great! Bây giờ mình cùng nói câu chào cuối nhé! Và cuối cùng, bài hát kết thúc bằng câu chào quen thuộc một lần nữa. Nói lại lần cuối nha! </t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Tớ hiểu, nhưng tớ vẫn ở đây. 🌸</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Great! Bây giờ mình cùng nói câu chào cuối nhé! Và cuối cùng, bài hát kết thúc bằng câu chào quen thuộc một lần nữa. Nói lại lần cuối nha! "}]</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Chào bạn, mình rất vui được gặp lại! 🎶✨</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": ""}]</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Cùng nói lại với tớ nào!</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Okay, I'll do that. Just wait for the message.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Cùng nói lại với tớ nào!"}, {"role": "user", "content": "hello hello hello how are you hello hello hello how are you"}]</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Well done! Giờ thì mình cùng hát lại từ đầu đến cuối bài hát này nhé, lần này cậu có thể vừa hát vừa nhún nhảy cho vui luôn nha! </t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Hey there! How's it going? 😊</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Well done! Giờ thì mình cùng hát lại từ đầu đến cuối bài hát này nhé, lần này cậu có thể vừa hát vừa nhún nhảy cho vui luôn nha! "}]</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Được rồi, mình sẽ hát lại cùng cậu!</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": ""}]</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Tiếp theo, hãy tưởng tượng mình sẽ bắt đầu một ngày mới thật vui bằng một bài hát tiếng Anh siêu rộn ràng nha. Cậu sẽ được luyện các câu chào buổi sáng theo nhịp. Vừa học, vừa hát, vừa nhảy cũng được luôn! Cậu sẵn sàng chưa?</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Okay, I'm here to help. What's on your mind?</t>
+          <t>Perfect! Cậu đã giỏi lắm rồi! Mình tin cậu sẽ nói rất tốt!</t>
         </is>
       </c>
     </row>
